--- a/Baltico_VAE/Multi K-means del VAE/Cod VAE+mkm/output best unif/all_centroidi_annotated_20_2020_cod_mkm_vae_sd.xlsx
+++ b/Baltico_VAE/Multi K-means del VAE/Cod VAE+mkm/output best unif/all_centroidi_annotated_20_2020_cod_mkm_vae_sd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Risk Assessment Mar Baltico - NOVEMBRE\Risk assessment_novembre\Baltico_VAE\Multi K-means del VAE\Cod VAE+mkm\output best unif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Risk Assessment Mar Baltico - NOVEMBRE\Risk assessment_novembre\BalticEcosystemRiskAssessment\Baltico_VAE\Multi K-means del VAE\Cod VAE+mkm\output best unif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CCC07A-E346-4B27-AF85-A3E7C59E7469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9375402B-5EA0-449E-AEEC-C29C1F663C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-2460" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:BO30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5739,7 +5739,7 @@
         <v>3.5</v>
       </c>
       <c r="P29" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:67" ht="33.85" customHeight="1" x14ac:dyDescent="0.45">
